--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Itga4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H2">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I2">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J2">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>0.018029104501</v>
+        <v>0.3767823341354999</v>
       </c>
       <c r="R2">
-        <v>0.072116418004</v>
+        <v>1.507129336542</v>
       </c>
       <c r="S2">
-        <v>5.688819374685838E-06</v>
+        <v>9.428778956756644E-05</v>
       </c>
       <c r="T2">
-        <v>2.689908930436729E-06</v>
+        <v>4.616523096094039E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H3">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I3">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J3">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.001615383244333333</v>
+        <v>0.01297006889683333</v>
       </c>
       <c r="R3">
-        <v>0.009692299465999999</v>
+        <v>0.07782041338099999</v>
       </c>
       <c r="S3">
-        <v>5.097104793749807E-07</v>
+        <v>3.245691254679867E-06</v>
       </c>
       <c r="T3">
-        <v>3.615182729765428E-07</v>
+        <v>2.383735270824651E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H4">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I4">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J4">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>2.806751089415667</v>
+        <v>26.58262121872533</v>
       </c>
       <c r="R4">
-        <v>16.840506536494</v>
+        <v>159.495727312352</v>
       </c>
       <c r="S4">
-        <v>0.000885629121318965</v>
+        <v>0.006652160593930959</v>
       </c>
       <c r="T4">
-        <v>0.0006281430800276401</v>
+        <v>0.004885550901392533</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H5">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I5">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J5">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>0.0787591249285</v>
+        <v>1.22449981067475</v>
       </c>
       <c r="R5">
-        <v>0.315036499714</v>
+        <v>4.897999242699</v>
       </c>
       <c r="S5">
-        <v>2.485128619681038E-05</v>
+        <v>0.0003064246118102375</v>
       </c>
       <c r="T5">
-        <v>1.175071526635188E-05</v>
+        <v>0.0001500317595864203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H6">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I6">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J6">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>0.03487920029066666</v>
+        <v>25.91723854000067</v>
       </c>
       <c r="R6">
-        <v>0.209275201744</v>
+        <v>155.503431240004</v>
       </c>
       <c r="S6">
-        <v>1.100561985073007E-05</v>
+        <v>0.006485652092046333</v>
       </c>
       <c r="T6">
-        <v>7.805867923985219E-06</v>
+        <v>0.004763261947302319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H7">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I7">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J7">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>4.027087009191</v>
+        <v>10.197312149201</v>
       </c>
       <c r="R7">
-        <v>24.162522055146</v>
+        <v>61.18387289520599</v>
       </c>
       <c r="S7">
-        <v>0.001270688214168414</v>
+        <v>0.00255182351976428</v>
       </c>
       <c r="T7">
-        <v>0.0009012508615500933</v>
+        <v>0.001874137510834188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>63.325338</v>
       </c>
       <c r="I8">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J8">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>6.696928903298001</v>
+        <v>17.431122513894</v>
       </c>
       <c r="R8">
-        <v>40.181573419788</v>
+        <v>104.586735083364</v>
       </c>
       <c r="S8">
-        <v>0.002113117647848906</v>
+        <v>0.004362046366339059</v>
       </c>
       <c r="T8">
-        <v>0.00149875404481254</v>
+        <v>0.003203620726839746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>63.325338</v>
       </c>
       <c r="I9">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J9">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>0.6000357221446666</v>
@@ -1013,10 +1013,10 @@
         <v>5.400321499302</v>
       </c>
       <c r="S9">
-        <v>0.0001893324674806147</v>
+        <v>0.0001501557710565405</v>
       </c>
       <c r="T9">
-        <v>0.0002014294862425946</v>
+        <v>0.0001654185100335356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>63.325338</v>
       </c>
       <c r="I10">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J10">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>1042.570500050535</v>
+        <v>1229.794725560043</v>
       </c>
       <c r="R10">
-        <v>9383.134500454818</v>
+        <v>11068.15253004038</v>
       </c>
       <c r="S10">
-        <v>0.3289678231014979</v>
+        <v>0.3077496363011764</v>
       </c>
       <c r="T10">
-        <v>0.3499865632103697</v>
+        <v>0.3390311670480788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>63.325338</v>
       </c>
       <c r="I11">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J11">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>29.255155745693</v>
+        <v>56.649169253343</v>
       </c>
       <c r="R11">
-        <v>175.530934474158</v>
+        <v>339.8950155200581</v>
       </c>
       <c r="S11">
-        <v>0.00923103511914965</v>
+        <v>0.01417615547711903</v>
       </c>
       <c r="T11">
-        <v>0.006547222411736438</v>
+        <v>0.01041140366224874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>63.325338</v>
       </c>
       <c r="I12">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J12">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>12.95591384128533</v>
+        <v>1199.012053601485</v>
       </c>
       <c r="R12">
-        <v>116.603224571568</v>
+        <v>10791.10848241337</v>
       </c>
       <c r="S12">
-        <v>0.004088048503627919</v>
+        <v>0.3000464351874211</v>
       </c>
       <c r="T12">
-        <v>0.004349246174087338</v>
+        <v>0.3305449660731842</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>63.325338</v>
       </c>
       <c r="I13">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J13">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>1495.865498280918</v>
+        <v>471.759372139828</v>
       </c>
       <c r="R13">
-        <v>13462.78948452826</v>
+        <v>4245.834349258452</v>
       </c>
       <c r="S13">
-        <v>0.4719984083553664</v>
+        <v>0.1180552918143208</v>
       </c>
       <c r="T13">
-        <v>0.5021558012076203</v>
+        <v>0.1300551443084116</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H14">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I14">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J14">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>0.01380210379766667</v>
+        <v>0.005584535743999999</v>
       </c>
       <c r="R14">
-        <v>0.08281262278600002</v>
+        <v>0.033507214464</v>
       </c>
       <c r="S14">
-        <v>4.355051327770389E-06</v>
+        <v>1.397500581525311E-06</v>
       </c>
       <c r="T14">
-        <v>3.088872405900611E-06</v>
+        <v>1.026367317709773E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H15">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I15">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J15">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>0.001236649729888889</v>
+        <v>0.0001922378168888889</v>
       </c>
       <c r="R15">
-        <v>0.011129847569</v>
+        <v>0.001730140352</v>
       </c>
       <c r="S15">
-        <v>3.902066762496003E-07</v>
+        <v>4.810649858979189E-08</v>
       </c>
       <c r="T15">
-        <v>4.151381502141727E-07</v>
+        <v>5.299633349861269E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H16">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I16">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J16">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>2.148696285396778</v>
+        <v>0.3939982979982222</v>
       </c>
       <c r="R16">
-        <v>19.338266568571</v>
+        <v>3.545984681984</v>
       </c>
       <c r="S16">
-        <v>0.0006779895838976746</v>
+        <v>9.859599361756689E-05</v>
       </c>
       <c r="T16">
-        <v>0.000721308370294819</v>
+        <v>0.0001086178855779881</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H17">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I17">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J17">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>0.06029371105016668</v>
+        <v>0.018149107168</v>
       </c>
       <c r="R17">
-        <v>0.3617622663010001</v>
+        <v>0.108894643008</v>
       </c>
       <c r="S17">
-        <v>1.902479580030572E-05</v>
+        <v>4.541718234805015E-06</v>
       </c>
       <c r="T17">
-        <v>1.349356467987797E-05</v>
+        <v>3.335577261343675E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H18">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I18">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J18">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>0.02670162252177778</v>
+        <v>0.3841362290631111</v>
       </c>
       <c r="R18">
-        <v>0.2403146026960001</v>
+        <v>3.457226061568</v>
       </c>
       <c r="S18">
-        <v>8.425305179689423E-06</v>
+        <v>9.612806294192066E-05</v>
       </c>
       <c r="T18">
-        <v>8.963623177602505E-06</v>
+        <v>0.0001058990995309455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H19">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I19">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J19">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>3.082919226521001</v>
+        <v>0.1511409878613333</v>
       </c>
       <c r="R19">
-        <v>27.746273038689</v>
+        <v>1.360268890752</v>
       </c>
       <c r="S19">
-        <v>0.0009727699246211245</v>
+        <v>3.782223413207743E-05</v>
       </c>
       <c r="T19">
-        <v>0.001034923110420788</v>
+        <v>4.166671432103615E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H20">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I20">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J20">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>1.3519583740025</v>
+        <v>5.570122698056999</v>
       </c>
       <c r="R20">
-        <v>5.407833496009999</v>
+        <v>22.280490792228</v>
       </c>
       <c r="S20">
-        <v>0.0004265906269148084</v>
+        <v>0.001393893792884279</v>
       </c>
       <c r="T20">
-        <v>0.0002017096802343308</v>
+        <v>0.0006824789209573237</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H21">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I21">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J21">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.1211336316941666</v>
+        <v>0.1917416731423333</v>
       </c>
       <c r="R21">
-        <v>0.7268017901649999</v>
+        <v>1.150450038854</v>
       </c>
       <c r="S21">
-        <v>3.822194002312271E-05</v>
+        <v>4.798234123703853E-05</v>
       </c>
       <c r="T21">
-        <v>2.710936954624947E-05</v>
+        <v>3.523970402870443E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H22">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I22">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J22">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>210.4713874649558</v>
+        <v>392.9814336014613</v>
       </c>
       <c r="R22">
-        <v>1262.828324789735</v>
+        <v>2357.888601608768</v>
       </c>
       <c r="S22">
-        <v>0.06641115795636103</v>
+        <v>0.09834152867169695</v>
       </c>
       <c r="T22">
-        <v>0.04710291057817029</v>
+        <v>0.07222503685263781</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H23">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I23">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J23">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>5.90595381319625</v>
+        <v>18.1022664049665</v>
       </c>
       <c r="R23">
-        <v>23.623815252785</v>
+        <v>72.409065619866</v>
       </c>
       <c r="S23">
-        <v>0.001863537064563966</v>
+        <v>0.004529996581192405</v>
       </c>
       <c r="T23">
-        <v>0.0008811573477752203</v>
+        <v>0.00221797901278783</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H24">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I24">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J24">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>2.615505773393333</v>
+        <v>383.1448175346226</v>
       </c>
       <c r="R24">
-        <v>15.69303464036</v>
+        <v>2298.868905207736</v>
       </c>
       <c r="S24">
-        <v>0.0008252844680919885</v>
+        <v>0.09587996744193535</v>
       </c>
       <c r="T24">
-        <v>0.0005853429107143943</v>
+        <v>0.07041719073781813</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H25">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I25">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J25">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>301.9813881832275</v>
+        <v>150.750910314734</v>
       </c>
       <c r="R25">
-        <v>1811.888329099365</v>
+        <v>904.5054618884038</v>
       </c>
       <c r="S25">
-        <v>0.09528579590827618</v>
+        <v>0.03772461928579442</v>
       </c>
       <c r="T25">
-        <v>0.06758259398197142</v>
+        <v>0.02770611820835363</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H26">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I26">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J26">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>0.04008343043733333</v>
+        <v>0.02833227006399999</v>
       </c>
       <c r="R26">
-        <v>0.240500582624</v>
+        <v>0.169993620384</v>
       </c>
       <c r="S26">
-        <v>1.264773830908386E-05</v>
+        <v>7.090000978669023E-06</v>
       </c>
       <c r="T26">
-        <v>8.970560142624552E-06</v>
+        <v>5.207114317686884E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H27">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I27">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J27">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.003591420855111111</v>
+        <v>0.0009752885457777776</v>
       </c>
       <c r="R27">
-        <v>0.03232278769599999</v>
+        <v>0.008777596911999998</v>
       </c>
       <c r="S27">
-        <v>1.133220152008861E-06</v>
+        <v>2.440608086972643E-07</v>
       </c>
       <c r="T27">
-        <v>1.205624983693149E-06</v>
+        <v>2.688686225525042E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H28">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I28">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J28">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>6.240144209118222</v>
+        <v>1.998888841500444</v>
       </c>
       <c r="R28">
-        <v>56.161297882064</v>
+        <v>17.989999573504</v>
       </c>
       <c r="S28">
-        <v>0.001968985940244364</v>
+        <v>0.0005002113777143594</v>
       </c>
       <c r="T28">
-        <v>0.002094790352863923</v>
+        <v>0.0005510558816429003</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H29">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I29">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J29">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>0.1751022023973333</v>
+        <v>0.092076661208</v>
       </c>
       <c r="R29">
-        <v>1.050613214384</v>
+        <v>0.552459967248</v>
       </c>
       <c r="S29">
-        <v>5.525093059906885E-05</v>
+        <v>2.304169826853364E-05</v>
       </c>
       <c r="T29">
-        <v>3.918738542518307E-05</v>
+        <v>1.692253038030272E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H30">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I30">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J30">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>0.07754561511822222</v>
+        <v>1.948855174734222</v>
       </c>
       <c r="R30">
-        <v>0.697910536064</v>
+        <v>17.539696572608</v>
       </c>
       <c r="S30">
-        <v>2.446838098264976E-05</v>
+        <v>0.0004876907168023466</v>
       </c>
       <c r="T30">
-        <v>2.603173917346133E-05</v>
+        <v>0.00053726254517553</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H31">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I31">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J31">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>8.953271194864001</v>
+        <v>0.7667902010346664</v>
       </c>
       <c r="R31">
-        <v>80.579440753776</v>
+        <v>6.901111809311998</v>
       </c>
       <c r="S31">
-        <v>0.002825073349446384</v>
+        <v>0.0001918851988735442</v>
       </c>
       <c r="T31">
-        <v>0.003005575752267079</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.759416</v>
-      </c>
-      <c r="I32">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J32">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.317263</v>
-      </c>
-      <c r="N32">
-        <v>0.634526</v>
-      </c>
-      <c r="O32">
-        <v>0.002587741009497455</v>
-      </c>
-      <c r="P32">
-        <v>0.001733186563985812</v>
-      </c>
-      <c r="Q32">
-        <v>0.08031153280266667</v>
-      </c>
-      <c r="R32">
-        <v>0.481869196816</v>
-      </c>
-      <c r="S32">
-        <v>2.534112572220025E-05</v>
-      </c>
-      <c r="T32">
-        <v>1.797349745997976E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.759416</v>
-      </c>
-      <c r="I33">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J33">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M33">
-        <v>0.02842633333333333</v>
-      </c>
-      <c r="N33">
-        <v>0.08527899999999999</v>
-      </c>
-      <c r="O33">
-        <v>0.0002318580752130287</v>
-      </c>
-      <c r="P33">
-        <v>0.0002329367385893502</v>
-      </c>
-      <c r="Q33">
-        <v>0.007195804118222222</v>
-      </c>
-      <c r="R33">
-        <v>0.064762237064</v>
-      </c>
-      <c r="S33">
-        <v>2.270530401657841E-06</v>
-      </c>
-      <c r="T33">
-        <v>2.415601393622347E-06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.759416</v>
-      </c>
-      <c r="I34">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J34">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>49.39115366666667</v>
-      </c>
-      <c r="N34">
-        <v>148.173461</v>
-      </c>
-      <c r="O34">
-        <v>0.4028566641859401</v>
-      </c>
-      <c r="P34">
-        <v>0.4047308569616938</v>
-      </c>
-      <c r="Q34">
-        <v>12.50281078430845</v>
-      </c>
-      <c r="R34">
-        <v>112.525297058776</v>
-      </c>
-      <c r="S34">
-        <v>0.003945078482620135</v>
-      </c>
-      <c r="T34">
-        <v>0.00419714136996736</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.759416</v>
-      </c>
-      <c r="I35">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J35">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.3859455</v>
-      </c>
-      <c r="N35">
-        <v>2.771891</v>
-      </c>
-      <c r="O35">
-        <v>0.01130440047304115</v>
-      </c>
-      <c r="P35">
-        <v>0.007571327633592944</v>
-      </c>
-      <c r="Q35">
-        <v>0.3508363959426667</v>
-      </c>
-      <c r="R35">
-        <v>2.105018375656</v>
-      </c>
-      <c r="S35">
-        <v>0.0001107012767313481</v>
-      </c>
-      <c r="T35">
-        <v>7.851620870987281E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.759416</v>
-      </c>
-      <c r="I36">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J36">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.6137786666666667</v>
-      </c>
-      <c r="N36">
-        <v>1.841336</v>
-      </c>
-      <c r="O36">
-        <v>0.005006257352694774</v>
-      </c>
-      <c r="P36">
-        <v>0.005029547749002214</v>
-      </c>
-      <c r="Q36">
-        <v>0.1553711133084445</v>
-      </c>
-      <c r="R36">
-        <v>1.398340019776</v>
-      </c>
-      <c r="S36">
-        <v>4.902507496179649E-05</v>
-      </c>
-      <c r="T36">
-        <v>5.215743392543298E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.759416</v>
-      </c>
-      <c r="I37">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J37">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>70.86573300000001</v>
-      </c>
-      <c r="N37">
-        <v>212.597199</v>
-      </c>
-      <c r="O37">
-        <v>0.5780130789036134</v>
-      </c>
-      <c r="P37">
-        <v>0.5807021443531359</v>
-      </c>
-      <c r="Q37">
-        <v>17.938857163976</v>
-      </c>
-      <c r="R37">
-        <v>161.449714475784</v>
-      </c>
-      <c r="S37">
-        <v>0.005660343151734917</v>
-      </c>
-      <c r="T37">
-        <v>0.006021999439306367</v>
+        <v>0.0002113895687911873</v>
       </c>
     </row>
   </sheetData>
